--- a/biology/Médecine/Gérontologie/Gérontologie.xlsx
+++ b/biology/Médecine/Gérontologie/Gérontologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rontologie</t>
+          <t>Gérontologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gérontologie  (du grec ancien γέρων / gérôn « vieillard » et λογία / logía « étude ») est un champ d'étude qui porte sur le vieillissement, ses conséquences et son implication au sens le plus large : biologie et physiologie des organismes vivants, psychologie, médecine, santé publique, économie, société, démographie, anthropologie[1], sociologie[2] et plus généralement la plupart des sciences humaines. Elle est donc un point de rencontre de multiples disciplines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gérontologie  (du grec ancien γέρων / gérôn « vieillard » et λογία / logía « étude ») est un champ d'étude qui porte sur le vieillissement, ses conséquences et son implication au sens le plus large : biologie et physiologie des organismes vivants, psychologie, médecine, santé publique, économie, société, démographie, anthropologie, sociologie et plus généralement la plupart des sciences humaines. Elle est donc un point de rencontre de multiples disciplines.
 La gériatrie est une composante du champ de la gérontologie qui s'intéresse plus spécifiquement aux conséquences du vieillissement sur la santé humaine et aux maladies des personnes âgées. Elle aborde la santé des personnes âgées dans le cadre de cette vision globale.
 Il est exceptionnel qu'un chercheur seul puisse connaître toutes les dimensions de la gérontologie. Par contre, les spécialistes du vieillissement dans leurs disciplines respectives sont plus nombreux. Leur rencontre et le travail interdisciplinaire sont l'enjeu principal de la gérontologie.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rontologie</t>
+          <t>Gérontologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>La démographie gérontologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La France se situe dans la moyenne par rapport à ses voisins qui eux aussi ont largement franchi le cap des 20 % de personnes âgées (Allemagne, Belgique, Danemark, Italie et Royaume-Uni)[3]. En 2015, les premiers baby-boomers ont eu 70 ans et va commencer une période où la proportion entre actifs et retraités sera potentiellement unique dans l’histoire de l’humanité. « Potentiellement » car nul ne sait qui décidera de rester actif et qui voudra prendre sa retraite. En 30 ans, il y a 3 millions de personnes âgées de plus de 60 ans[3]. Le phénomène le plus important dans les pays développés est le vieillissement démographique[4]. Cependant dans les secteurs de main-d’œuvre où les tâches sont pénibles – du bâtiment à la garde hospitalière – les pénuries de main-d’œuvre seront plus aiguës. Il y aura donc de plus en plus de personnes avec un besoin d’assistance et de moins en moins d’assistants.Le problème du vieillissement relatif de la population prendra d’autres aspects qu’il est difficile encore de conceptualiser aujourd’hui.[réf. nécessaire]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La France se situe dans la moyenne par rapport à ses voisins qui eux aussi ont largement franchi le cap des 20 % de personnes âgées (Allemagne, Belgique, Danemark, Italie et Royaume-Uni). En 2015, les premiers baby-boomers ont eu 70 ans et va commencer une période où la proportion entre actifs et retraités sera potentiellement unique dans l’histoire de l’humanité. « Potentiellement » car nul ne sait qui décidera de rester actif et qui voudra prendre sa retraite. En 30 ans, il y a 3 millions de personnes âgées de plus de 60 ans. Le phénomène le plus important dans les pays développés est le vieillissement démographique. Cependant dans les secteurs de main-d’œuvre où les tâches sont pénibles – du bâtiment à la garde hospitalière – les pénuries de main-d’œuvre seront plus aiguës. Il y aura donc de plus en plus de personnes avec un besoin d’assistance et de moins en moins d’assistants.Le problème du vieillissement relatif de la population prendra d’autres aspects qu’il est difficile encore de conceptualiser aujourd’hui.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rontologie</t>
+          <t>Gérontologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,18 @@
           <t>Les études de gérontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En France, et en Suisse plusieurs universités organisent des formations générales à la gérontologie ; par exemple l'université Sorbonne Université  (ex UPMC - Paris VI) propose un Master 2 intitulé « Expertise en gérontologie »[5]. Ce master forme des professionnels de ce domaines aux activités et métiers d'encadrement, de formation, de recherche (et de pratiques avancées pour les infirmiers/ères). En France, plusieurs universités organisent des diplômes d'université de Gérontologie qui sont intéressants pour une première approche de cette thématique.
-DU Cours international de médecine gériatrique, Faculté de Médecine Sorbonne Université [6]
-DU Gérontologie, UFR de Sociologie Université de Nantes[7]
-DU Gérontologie sanitaire et sociale, Faculté des sciences médicales et paramédicales Université d'Aix-Marseille[8]
-DU Maladies des personnes âgées, Université de Bordeaux[9]
-DU Gérontologie : approche clinique du vieillissement, Université de Lyon[10]
-DU Gérontologie sociale, Université Caen Normandie[11]
-DU Médecine gériatrique, gérontologie et coordination d'Etablissement d'Hébergement pour Personnes Agées Dépendantes (EHPAD), Faculté de médecine Montpellier[12]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En France, et en Suisse plusieurs universités organisent des formations générales à la gérontologie ; par exemple l'université Sorbonne Université  (ex UPMC - Paris VI) propose un Master 2 intitulé « Expertise en gérontologie ». Ce master forme des professionnels de ce domaines aux activités et métiers d'encadrement, de formation, de recherche (et de pratiques avancées pour les infirmiers/ères). En France, plusieurs universités organisent des diplômes d'université de Gérontologie qui sont intéressants pour une première approche de cette thématique.
+DU Cours international de médecine gériatrique, Faculté de Médecine Sorbonne Université 
+DU Gérontologie, UFR de Sociologie Université de Nantes
+DU Gérontologie sanitaire et sociale, Faculté des sciences médicales et paramédicales Université d'Aix-Marseille
+DU Maladies des personnes âgées, Université de Bordeaux
+DU Gérontologie : approche clinique du vieillissement, Université de Lyon
+DU Gérontologie sociale, Université Caen Normandie
+DU Médecine gériatrique, gérontologie et coordination d'Etablissement d'Hébergement pour Personnes Agées Dépendantes (EHPAD), Faculté de médecine Montpellier</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rontologie</t>
+          <t>Gérontologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Les revues de gérontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe en France une revue en ligne spécialisée : « Gérontologie et société »[13] publiée par la Caisse Nationale Assurance Vieillesse (CNAV), ainsi qu'une revue spécialisée dans le soin : Soins Gérontologie publié par Elsevier/Masson. Parmi les revues internationales : « The Gerontologist »[14], et Journals of Gerontology divisé en deux journaux (« Biology and Medical Sciences » et « Psychology and Social Sciences »)., les 3 publiées par le groupe Oxford Academic.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe en France une revue en ligne spécialisée : « Gérontologie et société » publiée par la Caisse Nationale Assurance Vieillesse (CNAV), ainsi qu'une revue spécialisée dans le soin : Soins Gérontologie publié par Elsevier/Masson. Parmi les revues internationales : « The Gerontologist », et Journals of Gerontology divisé en deux journaux (« Biology and Medical Sciences » et « Psychology and Social Sciences »)., les 3 publiées par le groupe Oxford Academic.
 </t>
         </is>
       </c>
